--- a/assets/materials/18-直料圓弧/text.xlsx
+++ b/assets/materials/18-直料圓弧/text.xlsx
@@ -736,7 +736,7 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>生成時間：2025-09-08 17:08:27 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
+          <t>生成時間：2025-09-08 17:31:21 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
         </is>
       </c>
     </row>

--- a/assets/materials/18-直料圓弧/text.xlsx
+++ b/assets/materials/18-直料圓弧/text.xlsx
@@ -736,7 +736,7 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>生成時間：2025-09-08 17:31:21 | 圖示功能：暫時停用，等 assets/materials 圖片準備好時再實作</t>
+          <t>生成時間：2025-10-06 08:11:38 | 圖示功能：已啟用 (mixed 模式)</t>
         </is>
       </c>
     </row>

--- a/assets/materials/18-直料圓弧/text.xlsx
+++ b/assets/materials/18-直料圓弧/text.xlsx
@@ -736,7 +736,7 @@
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>生成時間：2025-10-06 08:11:38 | 圖示功能：已啟用 (mixed 模式)</t>
+          <t>生成時間：2025-10-06 08:35:16 | 圖示功能：已啟用 (mixed 模式)</t>
         </is>
       </c>
     </row>
